--- a/MedicalLink/Templates/BC_102_TrichThuongChuyenGiaYeuCau.xlsx
+++ b/MedicalLink/Templates/BC_102_TrichThuongChuyenGiaYeuCau.xlsx
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$J$14</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -613,7 +613,7 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -626,7 +626,7 @@
     <col min="6" max="6" width="11.28515625" style="1" customWidth="1"/>
     <col min="7" max="9" width="17.85546875" style="1" customWidth="1"/>
     <col min="10" max="10" width="20.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" style="11" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" style="11" hidden="1" customWidth="1"/>
     <col min="12" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>

--- a/MedicalLink/Templates/BC_102_TrichThuongChuyenGiaYeuCau.xlsx
+++ b/MedicalLink/Templates/BC_102_TrichThuongChuyenGiaYeuCau.xlsx
@@ -270,9 +270,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -292,6 +289,9 @@
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -613,7 +613,7 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="A5" sqref="A5:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -711,34 +711,34 @@
       <c r="K5" s="14"/>
     </row>
     <row r="6" spans="1:11" s="9" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="E6" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="F6" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="23" t="s">
+      <c r="G6" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="23" t="s">
+      <c r="H6" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="23" t="s">
+      <c r="I6" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="J6" s="21" t="s">
+      <c r="J6" s="20" t="s">
         <v>29</v>
       </c>
       <c r="K6" s="10" t="s">
@@ -746,10 +746,10 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="18" t="s">
         <v>31</v>
       </c>
       <c r="I8" s="26" t="s">
@@ -765,29 +765,29 @@
       </c>
       <c r="C10" s="25"/>
       <c r="D10" s="8"/>
-      <c r="F10" s="15" t="s">
+      <c r="F10" s="23" t="s">
         <v>20</v>
       </c>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
-      <c r="I10" s="17" t="s">
+      <c r="I10" s="16" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="16"/>
+      <c r="B11" s="15"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
-      <c r="F11" s="16"/>
+      <c r="F11" s="15"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="16"/>
+      <c r="B12" s="15"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
-      <c r="F12" s="16"/>
+      <c r="F12" s="15"/>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
